--- a/Question_Sets/Personality & culture/Enneagram.xlsx
+++ b/Question_Sets/Personality & culture/Enneagram.xlsx
@@ -16,23 +16,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.', 'ques_type': 2, 'options': ['I rarely display signs of affection.', 'I am not afraid to display signs of affection.'], 'score': 'I rarely display signs of affection.'}, {'title': 'Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.', 'ques_type': 2, 'options': ['Friendship over fairness.', 'Fairness over friendship.'], 'score': 'Friendship over fairness.'}, {'title': 'Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.', 'ques_type': 2, 'options': ['I speak my mind about other people’s lives.', 'I am withdrawn and somewhat ambiguous in my communication.'], 'score': 'I speak my mind about other people’s lives.'}, {'title': 'Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.', 'ques_type': 2, 'options': ['I am determined in times of hardship.', 'I withdraw and am demotivated when faced with hardship.'], 'score': 'I am determined in times of hardship.'}]</t>
+    <t>questions = [
+    {
+        "title": "Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.",
+        "ques_type": 2,
+        "options": [
+            "I rarely display signs of affection.",
+            "I am not afraid to display signs of affection."
+        ],
+        "score": "I rarely display signs of affection."
+    },
+    {
+        "title": "Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.",
+        "ques_type": 2,
+        "options": [
+            "Friendship over fairness.",
+            "Fairness over friendship."
+        ],
+        "score": "Friendship over fairness."
+    },
+    {
+        "title": "Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.",
+        "ques_type": 2,
+        "options": [
+            "I speak my mind about other people\u2019s lives.",
+            "I am withdrawn and somewhat ambiguous in my communication."
+        ],
+        "score": "I speak my mind about other people\u2019s lives."
+    },
+    {
+        "title": "Describe yourself as you generally are now, not as you wish to be in the future. Describe yourself as you honestly see yourself, in relation to your peers.",
+        "ques_type": 2,
+        "options": [
+            "I am determined in times of hardship.",
+            "I withdraw and am demotivated when faced with hardship."
+        ],
+        "score": "I am determined in times of hardship."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +85,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +385,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
